--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,18 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>postCode</t>
+  </si>
+  <si>
+    <t>Chandru</t>
+  </si>
+  <si>
+    <t>ks</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,12 +369,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>560010</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="addCustomerTest" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
